--- a/common_presentation_materials/MBTI_description_table.xlsx
+++ b/common_presentation_materials/MBTI_description_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/common_materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/common_presentation_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{53A9811C-4E7C-40A0-BBBB-72AC71760A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB7F468D-0C81-48E5-A948-81A68C121DB2}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{53A9811C-4E7C-40A0-BBBB-72AC71760A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B72688C-E852-4025-8FA6-CA3EE08C88CD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{76B0B542-D45B-4B98-8922-4CACBD78323D}"/>
   </bookViews>
@@ -272,7 +272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,44 +315,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,22 +451,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:colOff>603250</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35349746-F71A-5ACA-BAFD-2E3FC41290E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA814EB9-9109-B09B-3AB5-28F23F3A8D02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -480,8 +489,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="400050" y="95250"/>
-          <a:ext cx="8401050" cy="3594100"/>
+          <a:off x="355600" y="114300"/>
+          <a:ext cx="8832850" cy="3594100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -853,10 +862,10 @@
         <v>20</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1013,7 @@
   <dimension ref="C2:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B2" sqref="B2:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1014,27 +1023,27 @@
     <col min="3" max="3" width="6.58203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.08203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="0.9140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.9140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="70.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="75.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="0.9140625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:8" ht="4.5" customHeight="1"/>
     <row r="3" spans="3:8" ht="26">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="16"/>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1046,147 +1055,147 @@
         <v>32</v>
       </c>
       <c r="E4" s="18"/>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="3:8" ht="26">
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="4.5" customHeight="1">
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="3:8" ht="39">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="39">
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="4.5" customHeight="1">
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="3:8" ht="26">
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="26">
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="4.5" customHeight="1">
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="3:8" ht="26">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="26">
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="29" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1221,7 +1230,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
